--- a/Optimizations.xlsx
+++ b/Optimizations.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Initial Test" sheetId="1" r:id="rId1"/>
+    <sheet name="dim3-deg7" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="27">
   <si>
     <t>Run Time</t>
   </si>
@@ -61,12 +62,57 @@
   <si>
     <t>Tag</t>
   </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Individual Tags</t>
+  </si>
+  <si>
+    <t>fno-defer-pop</t>
+  </si>
+  <si>
+    <t>f-defer-pop</t>
+  </si>
+  <si>
+    <t>fforward-propagate</t>
+  </si>
+  <si>
+    <t>fno-forward-propagate</t>
+  </si>
+  <si>
+    <t>fomit-frame-pointer</t>
+  </si>
+  <si>
+    <t>fno-omit-frame-pointer</t>
+  </si>
+  <si>
+    <t>fno-optimize-strlen</t>
+  </si>
+  <si>
+    <t>fipaa-sra</t>
+  </si>
+  <si>
+    <t>Avg Run Time</t>
+  </si>
+  <si>
+    <t>Avg Compile Time</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Compile Time</t>
+  </si>
+  <si>
+    <t>Averages:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +120,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -91,17 +157,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -119,6 +299,579 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>All</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial Test'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Initial Test'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Og</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Initial Test'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.53394900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.195001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44004399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35210000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44956699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35998200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74694499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49871100000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0570840000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial Test'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compilation Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Initial Test'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Og</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Initial Test'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial Test'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Initial Test'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Og</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Initial Test'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.73194899999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3990010000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60604400000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57710000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69656699999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60798200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99094499999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72171099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2160839999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1989940720"/>
+        <c:axId val="1989936368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1989940720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1989936368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1989936368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1989940720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -174,11 +927,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'dim3-deg7'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Run Time</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -197,9 +950,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>'dim3-deg7'!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>O</c:v>
                 </c:pt>
@@ -223,225 +976,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>'dim3-deg7'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.53394900000000001</c:v>
+                  <c:v>3.8764780000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.195001</c:v>
+                  <c:v>22.243158000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44004399999999999</c:v>
+                  <c:v>3.811503333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35210000000000002</c:v>
+                  <c:v>3.4815036666666668</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44956699999999999</c:v>
+                  <c:v>3.6005543333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35998200000000002</c:v>
+                  <c:v>3.4709799999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.74694499999999997</c:v>
+                  <c:v>6.6280466666666671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49871100000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Compilation Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>O0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>O1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>O2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>O3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Ofast</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Og</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Os</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.19800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.247</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.248</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.223</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>O</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>O0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>O1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>O2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>O3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Ofast</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Og</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Os</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.73194899999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3990010000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.60604400000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57710000000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69656699999999994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.60798200000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.99094499999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.72171099999999999</c:v>
+                  <c:v>3.8524953333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.848362666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,11 +1030,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2029058656"/>
-        <c:axId val="-2029057568"/>
+        <c:axId val="2066065664"/>
+        <c:axId val="2066069472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2029058656"/>
+        <c:axId val="2066065664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +1077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029057568"/>
+        <c:crossAx val="2066069472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -512,7 +1085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2029057568"/>
+        <c:axId val="2066069472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +1136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029058656"/>
+        <c:crossAx val="2066065664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -575,38 +1148,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -710,7 +1251,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Initial Test'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -733,9 +1274,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>'Initial Test'!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>O</c:v>
                 </c:pt>
@@ -759,16 +1300,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>'Initial Test'!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.53394900000000001</c:v>
                 </c:pt>
@@ -792,6 +1336,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.49871100000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0570840000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,11 +1354,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1898821776"/>
-        <c:axId val="-1898827216"/>
+        <c:axId val="1989942352"/>
+        <c:axId val="1989943440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1898821776"/>
+        <c:axId val="1989942352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,7 +1401,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1898827216"/>
+        <c:crossAx val="1989943440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -862,7 +1409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1898827216"/>
+        <c:axId val="1989943440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,7 +1460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1898821776"/>
+        <c:crossAx val="1989942352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1018,7 +1565,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'Initial Test'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1041,9 +1588,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>'Initial Test'!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>O</c:v>
                 </c:pt>
@@ -1067,16 +1614,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>'Initial Test'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.19800000000000001</c:v>
                 </c:pt>
@@ -1100,6 +1650,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1115,11 +1668,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1898816880"/>
-        <c:axId val="-1898816336"/>
+        <c:axId val="1989943984"/>
+        <c:axId val="1989939088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1898816880"/>
+        <c:axId val="1989943984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1898816336"/>
+        <c:crossAx val="1989939088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1170,7 +1723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1898816336"/>
+        <c:axId val="1989939088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1898816880"/>
+        <c:crossAx val="1989943984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1326,7 +1879,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'Initial Test'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1349,9 +1902,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>'Initial Test'!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>O</c:v>
                 </c:pt>
@@ -1375,16 +1928,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>'Initial Test'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.73194899999999996</c:v>
                 </c:pt>
@@ -1408,6 +1964,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.72171099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2160839999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,11 +1982,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1898818512"/>
-        <c:axId val="-1898817424"/>
+        <c:axId val="1989934736"/>
+        <c:axId val="1989935280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1898818512"/>
+        <c:axId val="1989934736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +2029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1898817424"/>
+        <c:crossAx val="1989935280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1478,7 +2037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1898817424"/>
+        <c:axId val="1989935280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +2088,2175 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1898818512"/>
+        <c:crossAx val="1989934736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial Test'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Run Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Initial Test'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Og</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Initial Test'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.53394900000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.195001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44004399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35210000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44956699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35998200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74694499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49871100000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0570840000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Initial Test'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Compilation Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Initial Test'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Og</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Initial Test'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2066791232"/>
+        <c:axId val="2066811904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2066791232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2066811904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2066811904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2066791232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9358705161854772E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Run Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Og</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dim3-deg7'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.6641446666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.722157999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6228366666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7731703333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8248876666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7376466666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2783799999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6178286666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.335695999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Compile Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Og</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dim3-deg7'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.2123333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1886666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7756666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3496666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2346666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51266666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2067925776"/>
+        <c:axId val="2067929040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2067925776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067929040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2067929040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067925776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>All Values</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Run Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Og</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dim3-deg7'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.6641446666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.722157999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6228366666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7731703333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8248876666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7376466666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2783799999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6178286666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.335695999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Compile Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Og</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dim3-deg7'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.2123333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1886666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7756666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3496666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2346666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51266666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Og</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dim3-deg7'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.8764780000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.243158000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.811503333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4815036666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6005543333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4709799999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6280466666666671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8524953333333336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.848362666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2067680880"/>
+        <c:axId val="2067674352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2067680880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067674352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2067674352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067680880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.899759405074366E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.89655796150481193"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Run Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Og</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dim3-deg7'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.6641446666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.722157999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6228366666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7731703333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8248876666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7376466666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2783799999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6178286666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.335695999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2067675984"/>
+        <c:axId val="2067687952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2067675984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067687952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2067687952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067675984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11610870516185477"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.88389129483814521"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Compile Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dim3-deg7'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>O</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>O1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ofast</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Og</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dim3-deg7'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.2123333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1886666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7756666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3496666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2346666666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51266666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2067679792"/>
+        <c:axId val="2066058048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2067679792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2066058048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2066058048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067679792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1579,6 +4306,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1738,6 +4505,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2254,7 +5221,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2770,7 +5737,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3286,7 +6253,3081 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3836,16 +9877,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3924,18 +9965,382 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D9" totalsRowShown="0">
-  <autoFilter ref="A1:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tag"/>
     <tableColumn id="2" name="Run Time"/>
     <tableColumn id="3" name="Compilation Time"/>
-    <tableColumn id="4" name="Total" dataDxfId="0">
+    <tableColumn id="4" name="Total" dataDxfId="5">
       <calculatedColumnFormula>B2+C2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table5121315" displayName="Table5121315" ref="A56:D59" totalsRowShown="0">
+  <autoFilter ref="A56:D59"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Trial"/>
+    <tableColumn id="2" name="Run Time"/>
+    <tableColumn id="3" name="Compile Time"/>
+    <tableColumn id="4" name="Total">
+      <calculatedColumnFormula>B57+C57</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table5121316" displayName="Table5121316" ref="A63:D66" totalsRowShown="0">
+  <autoFilter ref="A63:D66"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Trial"/>
+    <tableColumn id="2" name="Run Time"/>
+    <tableColumn id="3" name="Compile Time"/>
+    <tableColumn id="4" name="Total">
+      <calculatedColumnFormula>B64+C64</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table5121317" displayName="Table5121317" ref="A70:D73" totalsRowShown="0">
+  <autoFilter ref="A70:D73"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Trial"/>
+    <tableColumn id="2" name="Run Time"/>
+    <tableColumn id="3" name="Compile Time"/>
+    <tableColumn id="4" name="Total">
+      <calculatedColumnFormula>B71+C71</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A12:D21" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A12:D21"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Individual Tags">
+      <calculatedColumnFormula>A10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Run Time">
+      <calculatedColumnFormula>B10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Compilation Time">
+      <calculatedColumnFormula>C10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="Total" dataDxfId="3">
+      <calculatedColumnFormula>B13+C13</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Tag" dataDxfId="2"/>
+    <tableColumn id="2" name="Avg Run Time" dataDxfId="0">
+      <calculatedColumnFormula>$B19</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Avg Compile Time"/>
+    <tableColumn id="4" name="Total"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A14:D17" totalsRowShown="0">
+  <autoFilter ref="A14:D17"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Trial"/>
+    <tableColumn id="2" name="Run Time"/>
+    <tableColumn id="3" name="Compile Time"/>
+    <tableColumn id="4" name="Total" dataDxfId="1">
+      <calculatedColumnFormula>B15+C15</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table510" displayName="Table510" ref="A21:D24" totalsRowShown="0">
+  <autoFilter ref="A21:D24"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Trial"/>
+    <tableColumn id="2" name="Run Time"/>
+    <tableColumn id="3" name="Compile Time"/>
+    <tableColumn id="4" name="Total">
+      <calculatedColumnFormula>B22+C22</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table511" displayName="Table511" ref="A28:D31" totalsRowShown="0">
+  <autoFilter ref="A28:D31"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Trial"/>
+    <tableColumn id="2" name="Run Time"/>
+    <tableColumn id="3" name="Compile Time"/>
+    <tableColumn id="4" name="Total">
+      <calculatedColumnFormula>B29+C29</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table512" displayName="Table512" ref="A35:D38" totalsRowShown="0">
+  <autoFilter ref="A35:D38"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Trial"/>
+    <tableColumn id="2" name="Run Time"/>
+    <tableColumn id="3" name="Compile Time"/>
+    <tableColumn id="4" name="Total">
+      <calculatedColumnFormula>B36+C36</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table51213" displayName="Table51213" ref="A42:D45" totalsRowShown="0">
+  <autoFilter ref="A42:D45"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Trial"/>
+    <tableColumn id="2" name="Run Time"/>
+    <tableColumn id="3" name="Compile Time"/>
+    <tableColumn id="4" name="Total">
+      <calculatedColumnFormula>B43+C43</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table5121314" displayName="Table5121314" ref="A49:D52" totalsRowShown="0">
+  <autoFilter ref="A49:D52"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Trial"/>
+    <tableColumn id="2" name="Run Time"/>
+    <tableColumn id="3" name="Compile Time"/>
+    <tableColumn id="4" name="Total">
+      <calculatedColumnFormula>B50+C50</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4205,14 +10610,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="A1:A9 D1:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P35" sqref="P35:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
   </cols>
@@ -4351,11 +10757,1109 @@
         <v>0.72171099999999999</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2.0570840000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.159</v>
+      </c>
+      <c r="D10" s="3">
+        <f>B10+C10</f>
+        <v>2.2160839999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>A10</f>
+        <v>None</v>
+      </c>
+      <c r="B13">
+        <f>B10</f>
+        <v>2.0570840000000001</v>
+      </c>
+      <c r="C13">
+        <f>C10</f>
+        <v>0.159</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D15" si="1">B13+C13</f>
+        <v>2.2160839999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2.0087329999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2.1797329999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>2.0334840000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>2.227484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1.9974460000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.189</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D21" si="2">B16+C16</f>
+        <v>2.1864460000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1.992991</v>
+      </c>
+      <c r="C17">
+        <v>0.183</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1759909999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1.9437500000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="2"/>
+        <v>2.12175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1.975438</v>
+      </c>
+      <c r="C19">
+        <v>0.185</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1604380000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1.9794130000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>2.181413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2.1075560000000002</v>
+      </c>
+      <c r="C21">
+        <v>0.183</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="2"/>
+        <v>2.290556</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f>B18</f>
+        <v>2.6641446666666666</v>
+      </c>
+      <c r="C2">
+        <f>C18</f>
+        <v>1.2123333333333335</v>
+      </c>
+      <c r="D2">
+        <f>D18</f>
+        <v>3.8764780000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f>B25</f>
+        <v>21.722157999999997</v>
+      </c>
+      <c r="C3">
+        <f>C25</f>
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D3">
+        <f>D25</f>
+        <v>22.243158000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f>B32</f>
+        <v>2.6228366666666667</v>
+      </c>
+      <c r="C4">
+        <f>C32</f>
+        <v>1.1886666666666665</v>
+      </c>
+      <c r="D4">
+        <f>D32</f>
+        <v>3.811503333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f>B39</f>
+        <v>1.7731703333333335</v>
+      </c>
+      <c r="C5">
+        <f>C39</f>
+        <v>1.7083333333333333</v>
+      </c>
+      <c r="D5">
+        <f>D39</f>
+        <v>3.4815036666666668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f>B46</f>
+        <v>1.8248876666666665</v>
+      </c>
+      <c r="C6">
+        <f>C46</f>
+        <v>1.7756666666666667</v>
+      </c>
+      <c r="D6">
+        <f>D46</f>
+        <v>3.6005543333333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f>B53</f>
+        <v>1.7376466666666666</v>
+      </c>
+      <c r="C7">
+        <f>C53</f>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="D7">
+        <f>D53</f>
+        <v>3.4709799999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <f>B60</f>
+        <v>5.2783799999999994</v>
+      </c>
+      <c r="C8">
+        <f>C60</f>
+        <v>1.3496666666666668</v>
+      </c>
+      <c r="D8">
+        <f>D60</f>
+        <v>6.6280466666666671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>B67</f>
+        <v>2.6178286666666666</v>
+      </c>
+      <c r="C9">
+        <f>C67</f>
+        <v>1.2346666666666666</v>
+      </c>
+      <c r="D9">
+        <f>D67</f>
+        <v>3.8524953333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <f>B74</f>
+        <v>21.335695999999999</v>
+      </c>
+      <c r="C10">
+        <f>C74</f>
+        <v>0.51266666666666671</v>
+      </c>
+      <c r="D10">
+        <f>D74</f>
+        <v>21.848362666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2.6166849999999999</v>
+      </c>
+      <c r="C15">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D17" si="0">B15+C15</f>
+        <v>3.805685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2.6503809999999999</v>
+      </c>
+      <c r="C16">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3.8423809999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2.725368</v>
+      </c>
+      <c r="C17">
+        <v>1.256</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3.9813679999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <f>(B15+B16+B17)/3</f>
+        <v>2.6641446666666666</v>
+      </c>
+      <c r="C18">
+        <f>(C15+C16+C17)/3</f>
+        <v>1.2123333333333335</v>
+      </c>
+      <c r="D18">
+        <f>(D15+D16+D17)/3</f>
+        <v>3.8764780000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>21.932473000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D24" si="1">B22+C22</f>
+        <v>22.458473000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>21.335608000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.51</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>21.845608000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>21.898392999999999</v>
+      </c>
+      <c r="C24">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>22.425393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <f>(B22+B23+B24)/3</f>
+        <v>21.722157999999997</v>
+      </c>
+      <c r="C25">
+        <f>(C22+C23+C24)/3</f>
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="D25">
+        <f>(D22+D23+D24)/3</f>
+        <v>22.243158000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>2.6780439999999999</v>
+      </c>
+      <c r="C29">
+        <v>1.2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D31" si="2">B29+C29</f>
+        <v>3.878044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>2.5848270000000002</v>
+      </c>
+      <c r="C30">
+        <v>1.177</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>3.7618270000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>2.605639</v>
+      </c>
+      <c r="C31">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>3.7946390000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <f>(B29+B30+B31)/3</f>
+        <v>2.6228366666666667</v>
+      </c>
+      <c r="C32">
+        <f>(C29+C30+C31)/3</f>
+        <v>1.1886666666666665</v>
+      </c>
+      <c r="D32">
+        <f>(D29+D30+D31)/3</f>
+        <v>3.811503333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>1.77085</v>
+      </c>
+      <c r="C36">
+        <v>1.835</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:D38" si="3">B36+C36</f>
+        <v>3.6058500000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1.766049</v>
+      </c>
+      <c r="C37">
+        <v>1.65</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>3.4160490000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>1.7826120000000001</v>
+      </c>
+      <c r="C38">
+        <v>1.64</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>3.422612</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <f>(B36+B37+B38)/3</f>
+        <v>1.7731703333333335</v>
+      </c>
+      <c r="C39">
+        <f>(C36+C37+C38)/3</f>
+        <v>1.7083333333333333</v>
+      </c>
+      <c r="D39">
+        <f>(D36+D37+D38)/3</f>
+        <v>3.4815036666666668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1.8593919999999999</v>
+      </c>
+      <c r="C43">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:D45" si="4">B43+C43</f>
+        <v>3.683392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1.778289</v>
+      </c>
+      <c r="C44">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>3.5232890000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>1.8369819999999999</v>
+      </c>
+      <c r="C45">
+        <v>1.758</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>3.5949819999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46">
+        <f>(B43+B44+B45)/3</f>
+        <v>1.8248876666666665</v>
+      </c>
+      <c r="C46">
+        <f>(C43+C44+C45)/3</f>
+        <v>1.7756666666666667</v>
+      </c>
+      <c r="D46">
+        <f>(D43+D44+D45)/3</f>
+        <v>3.6005543333333332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>1.71702</v>
+      </c>
+      <c r="C50">
+        <v>1.653</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:D52" si="5">B50+C50</f>
+        <v>3.3700200000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1.697665</v>
+      </c>
+      <c r="C51">
+        <v>1.71</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>3.4076649999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>1.7982549999999999</v>
+      </c>
+      <c r="C52">
+        <v>1.837</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>3.6352549999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <f>(B50+B51+B52)/3</f>
+        <v>1.7376466666666666</v>
+      </c>
+      <c r="C53">
+        <f>(C50+C51+C52)/3</f>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="D53">
+        <f>(D50+D51+D52)/3</f>
+        <v>3.4709799999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>5.4353610000000003</v>
+      </c>
+      <c r="C57">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:D59" si="6">B57+C57</f>
+        <v>6.7873610000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>5.2168900000000002</v>
+      </c>
+      <c r="C58">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="6"/>
+        <v>6.5288900000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>5.1828890000000003</v>
+      </c>
+      <c r="C59">
+        <v>1.385</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="6"/>
+        <v>6.5678890000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <f>(B57+B58+B59)/3</f>
+        <v>5.2783799999999994</v>
+      </c>
+      <c r="C60">
+        <f>(C57+C58+C59)/3</f>
+        <v>1.3496666666666668</v>
+      </c>
+      <c r="D60">
+        <f>(D57+D58+D59)/3</f>
+        <v>6.6280466666666671</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>2.5861909999999999</v>
+      </c>
+      <c r="C64">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ref="D64:D66" si="7">B64+C64</f>
+        <v>3.771191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>2.581045</v>
+      </c>
+      <c r="C65">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="7"/>
+        <v>3.9090449999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>2.6862499999999998</v>
+      </c>
+      <c r="C66">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="7"/>
+        <v>3.8772500000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67">
+        <f>(B64+B65+B66)/3</f>
+        <v>2.6178286666666666</v>
+      </c>
+      <c r="C67">
+        <f>(C64+C65+C66)/3</f>
+        <v>1.2346666666666666</v>
+      </c>
+      <c r="D67">
+        <f>(D64+D65+D66)/3</f>
+        <v>3.8524953333333336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>21.125872999999999</v>
+      </c>
+      <c r="C71">
+        <v>0.505</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ref="D71:D73" si="8">B71+C71</f>
+        <v>21.630872999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>21.557715999999999</v>
+      </c>
+      <c r="C72">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="8"/>
+        <v>22.091715999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>21.323499000000002</v>
+      </c>
+      <c r="C73">
+        <v>0.499</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="8"/>
+        <v>21.822499000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74">
+        <f>(B71+B72+B73)/3</f>
+        <v>21.335695999999999</v>
+      </c>
+      <c r="C74">
+        <f>(C71+C72+C73)/3</f>
+        <v>0.51266666666666671</v>
+      </c>
+      <c r="D74">
+        <f>(D71+D72+D73)/3</f>
+        <v>21.848362666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="10">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>